--- a/Sample Data/students.xlsx
+++ b/Sample Data/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Ellen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Watkins</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14749134</t>
+          <t>07029964</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14749134</t>
+          <t>07029964</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,44 +496,44 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8297183522</t>
+          <t>5223461527</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>diana.watkins@gmail.com</t>
+          <t>ellen.anderson@yahoo.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Diana%20Watkins</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Ellen%20Anderson</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Farmer</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43777952</t>
+          <t>48432531</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43777952</t>
+          <t>48432531</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,44 +543,44 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9228931468</t>
+          <t>9917206206</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>robert.farmer@univ.edu</t>
+          <t>james.hernandez@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Robert%20Farmer</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Hernandez</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Tate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>36814422</t>
+          <t>97115688</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36814422</t>
+          <t>97115688</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,44 +590,44 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1990502807</t>
+          <t>8064732077</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>megan.bell@yahoo.com</t>
+          <t>tyler.tate@yahoo.com</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Megan%20Bell</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tyler%20Tate</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zhang</t>
+          <t>Velasquez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>64831506</t>
+          <t>79935172</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64831506</t>
+          <t>79935172</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,44 +637,44 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1825014095</t>
+          <t>4882751964</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>samuel.zhang@student.edu</t>
+          <t>amy.velasquez@gmail.com</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Samuel%20Zhang</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Amy%20Velasquez</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ralph</t>
+          <t>Bethany</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gutierrez</t>
+          <t>Solis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98854795</t>
+          <t>48173325</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98854795</t>
+          <t>48173325</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,44 +684,44 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3649323392</t>
+          <t>5523229907</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ralph.gutierrez@univ.edu</t>
+          <t>bethany.solis@student.edu</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Ralph%20Gutierrez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Bethany%20Solis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Owens</t>
+          <t>Ferguson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33012542</t>
+          <t>96873593</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33012542</t>
+          <t>96873593</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,44 +731,44 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1611181997</t>
+          <t>9787619172</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>travis.owens@gmail.com</t>
+          <t>deborah.ferguson@outlook.com</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Travis%20Owens</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Deborah%20Ferguson</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tonya</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rollins</t>
+          <t>Sosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>68166062</t>
+          <t>35771569</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>68166062</t>
+          <t>35771569</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,44 +778,44 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0068446018</t>
+          <t>9182931145</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tonya.rollins@outlook.com</t>
+          <t>erica.sosa@yahoo.com</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tonya%20Rollins</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Erica%20Sosa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meza</t>
+          <t>Olson</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>91119035</t>
+          <t>77355696</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91119035</t>
+          <t>77355696</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,44 +825,44 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3814252622</t>
+          <t>1989867182</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>john.meza@gmail.com</t>
+          <t>jessica.olson@outlook.com</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=John%20Meza</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jessica%20Olson</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Harrison</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23995160</t>
+          <t>25836191</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23995160</t>
+          <t>25836191</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,44 +872,44 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4921158409</t>
+          <t>2528524681</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>angela.harrison@outlook.com</t>
+          <t>raymond.williams@gmail.com</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Angela%20Harrison</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Raymond%20Williams</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cabrera</t>
+          <t>Blankenship</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>91960005</t>
+          <t>04811865</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91960005</t>
+          <t>04811865</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -919,44 +919,44 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2619696371</t>
+          <t>2843753049</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>benjamin.cabrera@gmail.com</t>
+          <t>gina.blankenship@student.edu</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Benjamin%20Cabrera</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Gina%20Blankenship</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38898438</t>
+          <t>05512573</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>38898438</t>
+          <t>05512573</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,44 +966,44 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4446529491</t>
+          <t>1471048303</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>michael.allen@student.edu</t>
+          <t>julie.hernandez@gmail.com</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michael%20Allen</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Julie%20Hernandez</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Montoya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>37718040</t>
+          <t>57967666</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37718040</t>
+          <t>57967666</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1013,44 +1013,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9650409332</t>
+          <t>3620714007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>benjamin.wilson@student.edu</t>
+          <t>william.montoya@yahoo.com</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Benjamin%20Wilson</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=William%20Montoya</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Collins</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12308571</t>
+          <t>64773242</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12308571</t>
+          <t>64773242</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1060,44 +1060,44 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4708645230</t>
+          <t>9508479870</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>raven.hernandez@outlook.com</t>
+          <t>james.collins@student.edu</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Raven%20Hernandez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Collins</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Renee</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stevens</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>84082322</t>
+          <t>29847907</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84082322</t>
+          <t>29847907</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1107,44 +1107,44 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2200007597</t>
+          <t>5346720374</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>renee.stevens@yahoo.com</t>
+          <t>thomas.daniels@student.edu</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Renee%20Stevens</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Thomas%20Daniels</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wilcox</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>99510522</t>
+          <t>92738860</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99510522</t>
+          <t>92738860</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1154,44 +1154,44 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5965319319</t>
+          <t>6289475195</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>william.wilcox@yahoo.com</t>
+          <t>tiffany.morgan@univ.edu</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=William%20Wilcox</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tiffany%20Morgan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fritz</t>
+          <t>Berry</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>88990514</t>
+          <t>97956720</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88990514</t>
+          <t>97956720</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1201,44 +1201,44 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7755700581</t>
+          <t>5301654942</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>matthew.fritz@gmail.com</t>
+          <t>rachel.berry@gmail.com</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Matthew%20Fritz</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Rachel%20Berry</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tabitha</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>88661105</t>
+          <t>56941459</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88661105</t>
+          <t>56941459</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1248,44 +1248,44 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0608820401</t>
+          <t>9750027256</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>tabitha.vasquez@outlook.com</t>
+          <t>david.davis@yahoo.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tabitha%20Vasquez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=David%20Davis</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Holly</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Vazquez</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>69119747</t>
+          <t>00871290</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>69119747</t>
+          <t>00871290</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1295,44 +1295,44 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2843729765</t>
+          <t>6139332511</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kelly.diaz@yahoo.com</t>
+          <t>holly.vazquez@student.edu</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Kelly%20Diaz</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Holly%20Vazquez</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fowler</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>84484673</t>
+          <t>86557889</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84484673</t>
+          <t>86557889</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1342,44 +1342,44 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3286740432</t>
+          <t>7264253667</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>katie.fowler@outlook.com</t>
+          <t>adam.brown@outlook.com</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Katie%20Fowler</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Adam%20Brown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vang</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>51208941</t>
+          <t>46323227</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51208941</t>
+          <t>46323227</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1389,44 +1389,44 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1552342947</t>
+          <t>1630252730</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>rebecca.vang@student.edu</t>
+          <t>justin.thomas@gmail.com</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Rebecca%20Vang</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Justin%20Thomas</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cory</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>59834935</t>
+          <t>21801116</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>59834935</t>
+          <t>21801116</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1436,44 +1436,44 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3839784912</t>
+          <t>6201185260</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cory.williams@univ.edu</t>
+          <t>kayla.white@univ.edu</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Cory%20Williams</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Kayla%20White</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stacie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Bond</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>80275543</t>
+          <t>85933323</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>80275543</t>
+          <t>85933323</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1483,44 +1483,44 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>8291231353</t>
+          <t>4268680920</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>stacie.house@gmail.com</t>
+          <t>erik.bond@univ.edu</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Stacie%20House</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Erik%20Bond</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18677795</t>
+          <t>57061887</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18677795</t>
+          <t>57061887</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1530,44 +1530,44 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0154087431</t>
+          <t>1907922471</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>shannon.taylor@student.edu</t>
+          <t>michael.park@student.edu</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Shannon%20Taylor</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michael%20Park</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>66296494</t>
+          <t>60647687</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>66296494</t>
+          <t>60647687</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1577,44 +1577,44 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4858623465</t>
+          <t>7068339923</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>nicole.johnson@gmail.com</t>
+          <t>mary.castro@outlook.com</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Nicole%20Johnson</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Mary%20Castro</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Garrett</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rivers</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>39789144</t>
+          <t>00761250</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>39789144</t>
+          <t>00761250</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1624,44 +1624,44 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4262400799</t>
+          <t>0691666384</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>erin.rivers@gmail.com</t>
+          <t>garrett.carter@outlook.com</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Erin%20Rivers</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Garrett%20Carter</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>82691795</t>
+          <t>64726087</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>82691795</t>
+          <t>64726087</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1671,44 +1671,44 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7902184703</t>
+          <t>8827878919</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>michael.martinez@gmail.com</t>
+          <t>heather.robinson@yahoo.com</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michael%20Martinez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Heather%20Robinson</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13987043</t>
+          <t>12727214</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13987043</t>
+          <t>12727214</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1718,44 +1718,44 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9588173114</t>
+          <t>4119031479</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>jessica.anthony@student.edu</t>
+          <t>heather.brown@outlook.com</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jessica%20Anthony</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Heather%20Brown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Norris</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>46507889</t>
+          <t>18782321</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46507889</t>
+          <t>18782321</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1765,44 +1765,44 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9732713862</t>
+          <t>1123909243</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>erik.norris@outlook.com</t>
+          <t>darren.taylor@univ.edu</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Erik%20Norris</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Darren%20Taylor</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bautista</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>66000636</t>
+          <t>60110816</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>66000636</t>
+          <t>60110816</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1812,44 +1812,44 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9387336306</t>
+          <t>9974191321</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>john.bautista@student.edu</t>
+          <t>sarah.green@univ.edu</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=John%20Bautista</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Sarah%20Green</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Collins</t>
+          <t>Powell</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>58683099</t>
+          <t>88297170</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>58683099</t>
+          <t>88297170</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1859,44 +1859,44 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9991831214</t>
+          <t>5504593788</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>stephanie.collins@student.edu</t>
+          <t>bobby.powell@gmail.com</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Stephanie%20Collins</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Bobby%20Powell</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parsons</t>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11533128</t>
+          <t>74819576</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11533128</t>
+          <t>74819576</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1906,44 +1906,44 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3654367667</t>
+          <t>5727628587</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>timothy.parsons@outlook.com</t>
+          <t>robert.floyd@univ.edu</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Timothy%20Parsons</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Robert%20Floyd</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>60625022</t>
+          <t>79615050</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>60625022</t>
+          <t>79615050</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1953,44 +1953,44 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9553448036</t>
+          <t>0603036177</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>michael.moore@student.edu</t>
+          <t>antonio.brown@yahoo.com</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michael%20Moore</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Antonio%20Brown</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Valentine</t>
+          <t>Cox</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>56871075</t>
+          <t>49454311</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>56871075</t>
+          <t>49454311</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2000,44 +2000,44 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5208477438</t>
+          <t>2551766580</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>samantha.valentine@student.edu</t>
+          <t>virginia.cox@student.edu</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Samantha%20Valentine</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Virginia%20Cox</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chang</t>
+          <t>Fuller</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>39117915</t>
+          <t>78264027</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>39117915</t>
+          <t>78264027</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2047,44 +2047,44 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2687901185</t>
+          <t>4211934732</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>james.chang@student.edu</t>
+          <t>julie.fuller@yahoo.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Chang</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Julie%20Fuller</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>58601741</t>
+          <t>82136274</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>58601741</t>
+          <t>82136274</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2094,44 +2094,44 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8905360471</t>
+          <t>3390426704</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>christopher.west@univ.edu</t>
+          <t>robert.jones@yahoo.com</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Christopher%20West</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Robert%20Jones</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pratt</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>51527528</t>
+          <t>01933199</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>51527528</t>
+          <t>01933199</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2141,44 +2141,44 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4508837964</t>
+          <t>2138193173</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kimberly.pratt@univ.edu</t>
+          <t>casey.washington@yahoo.com</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Kimberly%20Pratt</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Casey%20Washington</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Becky</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mcdowell</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>33726651</t>
+          <t>49973552</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>33726651</t>
+          <t>49973552</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2188,44 +2188,44 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5157483084</t>
+          <t>3209156110</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>becky.mcdowell@yahoo.com</t>
+          <t>charles.castro@student.edu</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Becky%20Mcdowell</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Charles%20Castro</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31943162</t>
+          <t>56377652</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>31943162</t>
+          <t>56377652</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2235,44 +2235,44 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>7622841337</t>
+          <t>9314142139</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>erin.nelson@univ.edu</t>
+          <t>jennifer.lee@student.edu</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Erin%20Nelson</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jennifer%20Lee</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Payne</t>
+          <t>Mccormick</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>84998546</t>
+          <t>87401425</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>84998546</t>
+          <t>87401425</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2282,44 +2282,44 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4428222734</t>
+          <t>2682026663</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>james.payne@gmail.com</t>
+          <t>michelle.mccormick@student.edu</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Payne</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michelle%20Mccormick</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rickey</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dixon</t>
+          <t>Castillo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>99355768</t>
+          <t>04276648</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>99355768</t>
+          <t>04276648</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2329,44 +2329,44 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8066900547</t>
+          <t>7222488160</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>rickey.dixon@yahoo.com</t>
+          <t>jessica.castillo@outlook.com</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Rickey%20Dixon</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jessica%20Castillo</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>87699607</t>
+          <t>08364668</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>87699607</t>
+          <t>08364668</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2376,44 +2376,44 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6827911885</t>
+          <t>4539136904</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>elizabeth.jones@gmail.com</t>
+          <t>molly.torres@student.edu</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Elizabeth%20Jones</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Molly%20Torres</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Watts</t>
+          <t>Riley</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20104891</t>
+          <t>55292916</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20104891</t>
+          <t>55292916</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2423,44 +2423,44 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7989572726</t>
+          <t>4083881069</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ashley.watts@gmail.com</t>
+          <t>desiree.riley@outlook.com</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Ashley%20Watts</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Desiree%20Riley</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Morrison</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>29345113</t>
+          <t>91565197</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>29345113</t>
+          <t>91565197</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2470,44 +2470,44 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9794180934</t>
+          <t>8940249282</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>carolyn.morrison@student.edu</t>
+          <t>stacey.ho@student.edu</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Carolyn%20Morrison</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Stacey%20Ho</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Schultz</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>28835934</t>
+          <t>23160911</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28835934</t>
+          <t>23160911</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2517,44 +2517,44 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7087466155</t>
+          <t>8299995803</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>raymond.schultz@univ.edu</t>
+          <t>darren.clay@student.edu</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Raymond%20Schultz</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Darren%20Clay</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kristen</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Mason</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25372349</t>
+          <t>42999083</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>25372349</t>
+          <t>42999083</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2564,44 +2564,44 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1006281556</t>
+          <t>8780847917</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>kristen.sullivan@gmail.com</t>
+          <t>brian.mason@yahoo.com</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Kristen%20Sullivan</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Brian%20Mason</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Walters</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>36253265</t>
+          <t>89698001</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>36253265</t>
+          <t>89698001</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2611,44 +2611,44 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6804619654</t>
+          <t>4035866769</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>thomas.johnson@univ.edu</t>
+          <t>chad.walters@outlook.com</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Thomas%20Johnson</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Chad%20Walters</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Burns</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>51690302</t>
+          <t>26699288</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>51690302</t>
+          <t>26699288</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2658,44 +2658,44 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6102030619</t>
+          <t>7040958645</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>timothy.burns@gmail.com</t>
+          <t>preston.newton@student.edu</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Timothy%20Burns</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Preston%20Newton</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Paige</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>27038070</t>
+          <t>28135428</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>27038070</t>
+          <t>28135428</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2705,44 +2705,44 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7851837347</t>
+          <t>2770636339</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>paige.lopez@gmail.com</t>
+          <t>chad.miller@student.edu</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Paige%20Lopez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Chad%20Miller</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>46261095</t>
+          <t>00521111</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46261095</t>
+          <t>00521111</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2752,44 +2752,44 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9909007409</t>
+          <t>5044127103</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>james.jordan@outlook.com</t>
+          <t>steven.walsh@gmail.com</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Jordan</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Steven%20Walsh</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Mendez</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>05657956</t>
+          <t>35679592</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>05657956</t>
+          <t>35679592</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2799,44 +2799,44 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2546015569</t>
+          <t>9755478527</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>theodore.martinez@outlook.com</t>
+          <t>donald.mendez@gmail.com</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Theodore%20Martinez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Donald%20Mendez</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Sherman</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>44990698</t>
+          <t>54655716</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>44990698</t>
+          <t>54655716</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2846,44 +2846,44 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0896563976</t>
+          <t>2768852636</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>brian.perez@gmail.com</t>
+          <t>jose.sherman@gmail.com</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Brian%20Perez</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jose%20Sherman</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Owen</t>
+          <t>Herring</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>37547051</t>
+          <t>61246811</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>37547051</t>
+          <t>61246811</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2893,44 +2893,44 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4311506579</t>
+          <t>8128072978</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>andrea.owen@univ.edu</t>
+          <t>jeffrey.herring@gmail.com</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Andrea%20Owen</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Jeffrey%20Herring</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Serrano</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>57257412</t>
+          <t>29762422</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>57257412</t>
+          <t>29762422</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2940,44 +2940,44 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2791977850</t>
+          <t>2171857649</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>philip.blackburn@student.edu</t>
+          <t>vanessa.serrano@univ.edu</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Philip%20Blackburn</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Vanessa%20Serrano</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Brock</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16211921</t>
+          <t>11849968</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16211921</t>
+          <t>11849968</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2987,44 +2987,44 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1133526080</t>
+          <t>2036046751</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>david.brock@yahoo.com</t>
+          <t>angela.lopez@univ.edu</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=David%20Brock</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Angela%20Lopez</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Tommy</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04650309</t>
+          <t>11448224</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>04650309</t>
+          <t>11448224</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3034,44 +3034,44 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6250260046</t>
+          <t>6401936670</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>richard.santiago@student.edu</t>
+          <t>tommy.chavez@gmail.com</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Richard%20Santiago</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tommy%20Chavez</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Woodard</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>73098781</t>
+          <t>96691593</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>73098781</t>
+          <t>96691593</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3081,44 +3081,44 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0374690032</t>
+          <t>3179341659</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>james.woodard@univ.edu</t>
+          <t>brittany.miranda@outlook.com</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Woodard</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Brittany%20Miranda</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Traci</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31948000</t>
+          <t>80872183</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>31948000</t>
+          <t>80872183</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3128,44 +3128,44 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5170461431</t>
+          <t>6190029829</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>terri.sullivan@gmail.com</t>
+          <t>traci.henry@univ.edu</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Terri%20Sullivan</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Traci%20Henry</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16781517</t>
+          <t>47974564</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16781517</t>
+          <t>47974564</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3175,44 +3175,44 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4816074822</t>
+          <t>2568875151</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>carolyn.wilson@univ.edu</t>
+          <t>melissa.long@yahoo.com</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Carolyn%20Wilson</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Melissa%20Long</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Becker</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>96757998</t>
+          <t>09627192</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>96757998</t>
+          <t>09627192</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3222,44 +3222,44 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6041404349</t>
+          <t>8196781032</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>dana.becker@yahoo.com</t>
+          <t>tom.johnson@student.edu</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Dana%20Becker</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Tom%20Johnson</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hansen</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>43426229</t>
+          <t>89764511</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>43426229</t>
+          <t>89764511</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3269,22 +3269,492 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Master 2</t>
+          <t>Engineer 3</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8051508536</t>
+          <t>3284985540</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>courtney.hansen@gmail.com</t>
+          <t>michael.brown@student.edu</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://api.dicebear.com/7.x/initials/svg?seed=Courtney%20Hansen</t>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Michael%20Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nicole</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hubbard</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>83545845</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>83545845</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6463478747</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>nicole.hubbard@outlook.com</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Nicole%20Hubbard</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Samantha</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>13414952</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13414952</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3415300041</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>samantha.james@univ.edu</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Samantha%20James</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ashley</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14390787</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14390787</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>6087524153</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ashley.carter@outlook.com</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Ashley%20Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sims</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>75133753</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>75133753</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2795202031</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>patrick.sims@outlook.com</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Patrick%20Sims</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>80226277</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>80226277</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3139830553</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>carolyn.davis@outlook.com</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Carolyn%20Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>94902819</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>94902819</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2526128540</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>eric.garcia@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Eric%20Garcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>35488222</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>35488222</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>8069841189</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>paul.jones@student.edu</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Paul%20Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>35831324</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>35831324</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2896362157</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>james.williams@gmail.com</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=James%20Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>48119551</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>48119551</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>6793817680</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>diana.anderson@univ.edu</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Diana%20Anderson</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Jenkins</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>17406690</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>17406690</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Engineer 3</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0590377872</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>timothy.jenkins@outlook.com</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://api.dicebear.com/7.x/initials/svg?seed=Timothy%20Jenkins</t>
         </is>
       </c>
     </row>
